--- a/biology/Histoire de la zoologie et de la botanique/Benedetto_Lanza/Benedetto_Lanza.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Benedetto_Lanza/Benedetto_Lanza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Benedetto Lanza est un biologiste herpétologiste italien né à Florence le 24 mai 1924 et mort le 10 mars 2016 (à 91 ans)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benedetto Lanza est un biologiste herpétologiste italien né à Florence le 24 mai 1924 et mort le 10 mars 2016 (à 91 ans).
 Il travaille au Dipartimento di Biologia Animale e Genetica à l'Université de Florence et dans le cadre du Museo di Storia Naturale dell’Università degli Studi di Firenze, Sezione di Zoologia La Specola.
 </t>
         </is>
@@ -512,11 +524,13 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Chalcides lanzai Pasteur, 1967[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Chalcides lanzai Pasteur, 1967
 Emys orbicularis lanzai Fritz, 1995
-Latastia laticaudata lanzai Arillo, Balletto &amp; Spano, 1967[2]
+Latastia laticaudata lanzai Arillo, Balletto &amp; Spano, 1967
 Lanzarana Clarke, 1982
 Salamandra lanzai Nascetti, Andreone, Capula &amp; Bullini, 1988</t>
         </is>
@@ -546,7 +560,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acanthodactylus harranensis Baran, Kumlutas, Lanza, Sindaco, Avci &amp; Crucitti, 2005
